--- a/BEMFSimulation/ExcelResults/LineVoltage6000.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage6000.xlsx
@@ -408,13 +408,13 @@
         <v>2.777777777777778e-05</v>
       </c>
       <c r="B2">
-        <v>-390.1610503342766</v>
+        <v>-393.833895961649</v>
       </c>
       <c r="C2">
-        <v>810.082524676599</v>
+        <v>825.4832903870233</v>
       </c>
       <c r="D2">
-        <v>-419.9214743423224</v>
+        <v>-431.6493944253742</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>5.555555555555556e-05</v>
       </c>
       <c r="B3">
-        <v>-351.440213886117</v>
+        <v>-361.2861714301371</v>
       </c>
       <c r="C3">
-        <v>787.0915971157511</v>
+        <v>812.1383699234104</v>
       </c>
       <c r="D3">
-        <v>-435.6513832296341</v>
+        <v>-450.8521984932734</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>8.333333333333334e-05</v>
       </c>
       <c r="B4">
-        <v>-270.9169697907672</v>
+        <v>-287.4202761626873</v>
       </c>
       <c r="C4">
-        <v>739.5982860342193</v>
+        <v>770.2531457908726</v>
       </c>
       <c r="D4">
-        <v>-468.6813162434521</v>
+        <v>-482.8328696281853</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001111111111111111</v>
       </c>
       <c r="B5">
-        <v>-165.1541364562348</v>
+        <v>-161.9753847572689</v>
       </c>
       <c r="C5">
-        <v>680.3524387849266</v>
+        <v>682.028935359202</v>
       </c>
       <c r="D5">
-        <v>-515.1983023286919</v>
+        <v>-520.0535506019332</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0001388888888888889</v>
       </c>
       <c r="B6">
-        <v>-79.60143978308665</v>
+        <v>-76.76566658209899</v>
       </c>
       <c r="C6">
-        <v>640.4982432113196</v>
+        <v>660.4445457564613</v>
       </c>
       <c r="D6">
-        <v>-560.8968034282329</v>
+        <v>-583.6788791743622</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B7">
-        <v>-35.49642197760238</v>
+        <v>-38.7218490901825</v>
       </c>
       <c r="C7">
-        <v>620.173180455381</v>
+        <v>641.3596062533944</v>
       </c>
       <c r="D7">
-        <v>-584.6767584777787</v>
+        <v>-602.6377571632119</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0001944444444444444</v>
       </c>
       <c r="B8">
-        <v>-9.674850955590614</v>
+        <v>-14.48299442675716</v>
       </c>
       <c r="C8">
-        <v>622.7776415103264</v>
+        <v>632.200544753674</v>
       </c>
       <c r="D8">
-        <v>-613.1027905547357</v>
+        <v>-617.7175503269168</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0002222222222222222</v>
       </c>
       <c r="B9">
-        <v>9.193449919009709</v>
+        <v>11.11760127621847</v>
       </c>
       <c r="C9">
-        <v>615.2107489227033</v>
+        <v>620.6020324951837</v>
       </c>
       <c r="D9">
-        <v>-624.404198841713</v>
+        <v>-631.7196337714022</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.00025</v>
       </c>
       <c r="B10">
-        <v>35.02378867746535</v>
+        <v>39.30980951620285</v>
       </c>
       <c r="C10">
-        <v>586.2767200405611</v>
+        <v>598.0830602313915</v>
       </c>
       <c r="D10">
-        <v>-621.3005087180264</v>
+        <v>-637.3928697475944</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0002777777777777778</v>
       </c>
       <c r="B11">
-        <v>78.5578280174982</v>
+        <v>78.91787804847061</v>
       </c>
       <c r="C11">
-        <v>562.9378316368823</v>
+        <v>591.0863373429561</v>
       </c>
       <c r="D11">
-        <v>-641.4956596543805</v>
+        <v>-670.0042153914267</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0003055555555555555</v>
       </c>
       <c r="B12">
-        <v>164.4498949775695</v>
+        <v>169.1780473003762</v>
       </c>
       <c r="C12">
-        <v>516.9224672908123</v>
+        <v>522.2779645169355</v>
       </c>
       <c r="D12">
-        <v>-681.3723622683817</v>
+        <v>-691.4560118173117</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B13">
-        <v>269.2178922511707</v>
+        <v>280.3697941060024</v>
       </c>
       <c r="C13">
-        <v>470.1258995628295</v>
+        <v>476.606591883863</v>
       </c>
       <c r="D13">
-        <v>-739.3437918140003</v>
+        <v>-756.9763859898653</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0003611111111111111</v>
       </c>
       <c r="B14">
-        <v>350.5780642962342</v>
+        <v>365.5252229661675</v>
       </c>
       <c r="C14">
-        <v>435.6317442482845</v>
+        <v>450.5801513301695</v>
       </c>
       <c r="D14">
-        <v>-786.2098085445188</v>
+        <v>-816.105374296337</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0003888888888888889</v>
       </c>
       <c r="B15">
-        <v>389.0523884239628</v>
+        <v>391.1053834867369</v>
       </c>
       <c r="C15">
-        <v>418.6495635395016</v>
+        <v>429.128746867469</v>
       </c>
       <c r="D15">
-        <v>-807.7019519634645</v>
+        <v>-820.2341303542058</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0004166666666666666</v>
       </c>
       <c r="B16">
-        <v>414.3782999570344</v>
+        <v>419.5132675777318</v>
       </c>
       <c r="C16">
-        <v>413.7164592839931</v>
+        <v>421.1778232267463</v>
       </c>
       <c r="D16">
-        <v>-828.0947592410275</v>
+        <v>-840.6910908044781</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0004444444444444444</v>
       </c>
       <c r="B17">
-        <v>418.939578622321</v>
+        <v>429.1113191137268</v>
       </c>
       <c r="C17">
-        <v>390.2806773434302</v>
+        <v>394.1636873089346</v>
       </c>
       <c r="D17">
-        <v>-809.2202559657512</v>
+        <v>-823.2750064226614</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0004722222222222222</v>
       </c>
       <c r="B18">
-        <v>434.4382179263377</v>
+        <v>450.8628443661845</v>
       </c>
       <c r="C18">
-        <v>351.6624809383894</v>
+        <v>362.8135975187255</v>
       </c>
       <c r="D18">
-        <v>-786.1006988647271</v>
+        <v>-813.67644188491</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0005</v>
       </c>
       <c r="B19">
-        <v>469.3907844303621</v>
+        <v>484.7778443065751</v>
       </c>
       <c r="C19">
-        <v>271.8834791331926</v>
+        <v>287.6414536932695</v>
       </c>
       <c r="D19">
-        <v>-741.2742635635548</v>
+        <v>-772.4192979998446</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0005277777777777778</v>
       </c>
       <c r="B20">
-        <v>516.6657349675069</v>
+        <v>521.7650868836852</v>
       </c>
       <c r="C20">
-        <v>165.3073002911703</v>
+        <v>163.6769044045413</v>
       </c>
       <c r="D20">
-        <v>-681.9730352586771</v>
+        <v>-685.4419912882265</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0005555555555555557</v>
       </c>
       <c r="B21">
-        <v>562.2565774309231</v>
+        <v>585.7671260880775</v>
       </c>
       <c r="C21">
-        <v>79.34363297506397</v>
+        <v>78.23533145805445</v>
       </c>
       <c r="D21">
-        <v>-641.6002104059871</v>
+        <v>-664.0024575461318</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0005833333333333335</v>
       </c>
       <c r="B22">
-        <v>585.4256317147307</v>
+        <v>602.7221104178795</v>
       </c>
       <c r="C22">
-        <v>35.91218286243924</v>
+        <v>39.48613263894703</v>
       </c>
       <c r="D22">
-        <v>-621.3378145771699</v>
+        <v>-642.2082430568266</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0006111111111111113</v>
       </c>
       <c r="B23">
-        <v>613.2604655096172</v>
+        <v>618.9170780268174</v>
       </c>
       <c r="C23">
-        <v>9.967430418935436</v>
+        <v>13.1941322400211</v>
       </c>
       <c r="D23">
-        <v>-623.2278959285527</v>
+        <v>-632.1112102668385</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0006388888888888891</v>
       </c>
       <c r="B24">
-        <v>623.9958784988464</v>
+        <v>634.6885196930205</v>
       </c>
       <c r="C24">
-        <v>-9.362772036547653</v>
+        <v>-12.73692832581634</v>
       </c>
       <c r="D24">
-        <v>-614.6331064622987</v>
+        <v>-621.9515913672041</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.000666666666666667</v>
       </c>
       <c r="B25">
-        <v>622.1311531114</v>
+        <v>638.8970043836187</v>
       </c>
       <c r="C25">
-        <v>-35.51779989656447</v>
+        <v>-39.15329814120435</v>
       </c>
       <c r="D25">
-        <v>-586.6133532148356</v>
+        <v>-599.7437062424144</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.0006944444444444448</v>
       </c>
       <c r="B26">
-        <v>642.7843887773124</v>
+        <v>668.2747895323607</v>
       </c>
       <c r="C26">
-        <v>-78.69528067871323</v>
+        <v>-77.04889458650862</v>
       </c>
       <c r="D26">
-        <v>-564.0891080985991</v>
+        <v>-591.2258949458521</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.0007222222222222226</v>
       </c>
       <c r="B27">
-        <v>682.8789090975746</v>
+        <v>688.5335245894466</v>
       </c>
       <c r="C27">
-        <v>-164.3971346212426</v>
+        <v>-166.5062098741299</v>
       </c>
       <c r="D27">
-        <v>-518.481774476332</v>
+        <v>-522.0273147153168</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.0007500000000000004</v>
       </c>
       <c r="B28">
-        <v>741.9389152870577</v>
+        <v>758.1392178363087</v>
       </c>
       <c r="C28">
-        <v>-270.0734556282982</v>
+        <v>-280.8572327769147</v>
       </c>
       <c r="D28">
-        <v>-471.8654596587596</v>
+        <v>-477.2819850593941</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.0007777777777777783</v>
       </c>
       <c r="B29">
-        <v>787.6554778264122</v>
+        <v>819.4021675795282</v>
       </c>
       <c r="C29">
-        <v>-351.4719759436516</v>
+        <v>-367.0228980088103</v>
       </c>
       <c r="D29">
-        <v>-436.1835018827605</v>
+        <v>-452.3792695707179</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.0008055555555555561</v>
       </c>
       <c r="B30">
-        <v>807.6971317899746</v>
+        <v>823.0511116909681</v>
       </c>
       <c r="C30">
-        <v>-389.5179331021989</v>
+        <v>-392.2648384766259</v>
       </c>
       <c r="D30">
-        <v>-418.1791986877757</v>
+        <v>-430.7862732143422</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.0008333333333333339</v>
       </c>
       <c r="B31">
-        <v>827.4453033523732</v>
+        <v>838.9248263421744</v>
       </c>
       <c r="C31">
-        <v>-414.2363328430098</v>
+        <v>-419.3702600180614</v>
       </c>
       <c r="D31">
-        <v>-413.2089705093634</v>
+        <v>-419.5545663241129</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.0008611111111111118</v>
       </c>
       <c r="B32">
-        <v>808.6045235590693</v>
+        <v>818.1732632890705</v>
       </c>
       <c r="C32">
-        <v>-418.9525842143768</v>
+        <v>-427.9292239346232</v>
       </c>
       <c r="D32">
-        <v>-389.6519393446926</v>
+        <v>-390.2440393544474</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.0008888888888888896</v>
       </c>
       <c r="B33">
-        <v>785.6539499054285</v>
+        <v>811.3688790942987</v>
       </c>
       <c r="C33">
-        <v>-434.6748259659929</v>
+        <v>-450.0132424902631</v>
       </c>
       <c r="D33">
-        <v>-350.9791239394356</v>
+        <v>-361.3556366040356</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.0009166666666666674</v>
       </c>
       <c r="B34">
-        <v>740.6643016688364</v>
+        <v>773.0271626446861</v>
       </c>
       <c r="C34">
-        <v>-469.1570348222614</v>
+        <v>-484.0677640644992</v>
       </c>
       <c r="D34">
-        <v>-271.507266846575</v>
+        <v>-288.9593985801869</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.0009444444444444452</v>
       </c>
       <c r="B35">
-        <v>681.5349694107168</v>
+        <v>683.8771672359053</v>
       </c>
       <c r="C35">
-        <v>-516.1769249229138</v>
+        <v>-519.862743754386</v>
       </c>
       <c r="D35">
-        <v>-165.358044487803</v>
+        <v>-164.0144234815194</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.0009722222222222231</v>
       </c>
       <c r="B36">
-        <v>641.4367258269006</v>
+        <v>660.9849188406852</v>
       </c>
       <c r="C36">
-        <v>-561.7599680546704</v>
+        <v>-583.9416043540546</v>
       </c>
       <c r="D36">
-        <v>-79.67675777223013</v>
+        <v>-77.04331448663058</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001000000000000001</v>
       </c>
       <c r="B37">
-        <v>621.5802035377342</v>
+        <v>641.3838118262171</v>
       </c>
       <c r="C37">
-        <v>-585.8111494815689</v>
+        <v>-603.2733307952642</v>
       </c>
       <c r="D37">
-        <v>-35.76905405616526</v>
+        <v>-38.11048103095291</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001027777777777779</v>
       </c>
       <c r="B38">
-        <v>623.4021940367988</v>
+        <v>632.0953011911065</v>
       </c>
       <c r="C38">
-        <v>-613.6751689805674</v>
+        <v>-618.4229326223115</v>
       </c>
       <c r="D38">
-        <v>-9.727025056231469</v>
+        <v>-13.67236856879506</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001055555555555557</v>
       </c>
       <c r="B39">
-        <v>615.4356855672642</v>
+        <v>622.0613803351628</v>
       </c>
       <c r="C39">
-        <v>-625.0554076578717</v>
+        <v>-633.579821460838</v>
       </c>
       <c r="D39">
-        <v>9.619722090607553</v>
+        <v>11.51844112567522</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001083333333333334</v>
       </c>
       <c r="B40">
-        <v>585.8538271792459</v>
+        <v>599.3076195400366</v>
       </c>
       <c r="C40">
-        <v>-621.2560809060791</v>
+        <v>-638.1381880097249</v>
       </c>
       <c r="D40">
-        <v>35.40225372683324</v>
+        <v>38.83056846968827</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001111111111111112</v>
       </c>
       <c r="B41">
-        <v>563.1957358613172</v>
+        <v>593.0797396397361</v>
       </c>
       <c r="C41">
-        <v>-641.7710301836918</v>
+        <v>-671.1341681793494</v>
       </c>
       <c r="D41">
-        <v>78.57529432237462</v>
+        <v>78.05442853961347</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.00113888888888889</v>
       </c>
       <c r="B42">
-        <v>517.6792018880628</v>
+        <v>522.3573626152299</v>
       </c>
       <c r="C42">
-        <v>-681.9365521719858</v>
+        <v>-691.0404358798535</v>
       </c>
       <c r="D42">
-        <v>164.2573502839229</v>
+        <v>168.6830732646236</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001166666666666668</v>
       </c>
       <c r="B43">
-        <v>470.730950100019</v>
+        <v>477.4272404497196</v>
       </c>
       <c r="C43">
-        <v>-740.4833301208475</v>
+        <v>-759.3051840699453</v>
       </c>
       <c r="D43">
-        <v>269.7523800208285</v>
+        <v>281.8779436202257</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001194444444444446</v>
       </c>
       <c r="B44">
-        <v>436.0388354353299</v>
+        <v>452.1420047887914</v>
       </c>
       <c r="C44">
-        <v>-787.5730144149086</v>
+        <v>-818.9603436432355</v>
       </c>
       <c r="D44">
-        <v>351.5341789795787</v>
+        <v>366.8183388544441</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001222222222222224</v>
       </c>
       <c r="B45">
-        <v>419.1003944531005</v>
+        <v>428.7833130717268</v>
       </c>
       <c r="C45">
-        <v>-809.3258845548171</v>
+        <v>-818.7388463578083</v>
       </c>
       <c r="D45">
-        <v>390.2254901017167</v>
+        <v>389.9555332860814</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001250000000000001</v>
       </c>
       <c r="B46">
-        <v>414.423994484191</v>
+        <v>422.4039069466922</v>
       </c>
       <c r="C46">
-        <v>-829.8582138995994</v>
+        <v>-844.106021038891</v>
       </c>
       <c r="D46">
-        <v>415.4342194154083</v>
+        <v>421.7021140921987</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001277777777777779</v>
       </c>
       <c r="B47">
-        <v>390.1082773081815</v>
+        <v>393.7907004175387</v>
       </c>
       <c r="C47">
-        <v>-810.0345256043166</v>
+        <v>-825.4569643567346</v>
       </c>
       <c r="D47">
-        <v>419.9262482961352</v>
+        <v>431.6662639391959</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001305555555555557</v>
       </c>
       <c r="B48">
-        <v>351.3722876198337</v>
+        <v>361.2383851130742</v>
       </c>
       <c r="C48">
-        <v>-787.0638687961659</v>
+        <v>-812.1377150215158</v>
       </c>
       <c r="D48">
-        <v>435.6915811763322</v>
+        <v>450.8993299084415</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001333333333333335</v>
       </c>
       <c r="B49">
-        <v>270.7609362787867</v>
+        <v>287.2339157835788</v>
       </c>
       <c r="C49">
-        <v>-739.502449312927</v>
+        <v>-770.1059641429549</v>
       </c>
       <c r="D49">
-        <v>468.7415130341402</v>
+        <v>482.8720483593761</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.001361111111111113</v>
       </c>
       <c r="B50">
-        <v>165.0126151042725</v>
+        <v>161.8265576152253</v>
       </c>
       <c r="C50">
-        <v>-680.2785754974091</v>
+        <v>-681.9629091975577</v>
       </c>
       <c r="D50">
-        <v>515.2659603931365</v>
+        <v>520.1363515823324</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.00138888888888889</v>
       </c>
       <c r="B51">
-        <v>79.50702919811579</v>
+        <v>76.67376717202467</v>
       </c>
       <c r="C51">
-        <v>-640.4589791610995</v>
+        <v>-660.4262461266214</v>
       </c>
       <c r="D51">
-        <v>560.9519499629837</v>
+        <v>583.7524789545967</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.001416666666666668</v>
       </c>
       <c r="B52">
-        <v>35.45261929619335</v>
+        <v>38.69067330450781</v>
       </c>
       <c r="C52">
-        <v>-620.1573654082204</v>
+        <v>-641.3243382163205</v>
       </c>
       <c r="D52">
-        <v>584.704746112027</v>
+        <v>602.6336649118126</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.001444444444444446</v>
       </c>
       <c r="B53">
-        <v>9.644897731674433</v>
+        <v>14.44885984789619</v>
       </c>
       <c r="C53">
-        <v>-622.7895020357475</v>
+        <v>-632.2100936472739</v>
       </c>
       <c r="D53">
-        <v>613.1446043040731</v>
+        <v>617.7612337993776</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.001472222222222224</v>
       </c>
       <c r="B54">
-        <v>-9.222835710713696</v>
+        <v>-11.15665947573564</v>
       </c>
       <c r="C54">
-        <v>-615.1746712126088</v>
+        <v>-620.5623118659166</v>
       </c>
       <c r="D54">
-        <v>624.3975069233226</v>
+        <v>631.7189713416523</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.001500000000000002</v>
       </c>
       <c r="B55">
-        <v>-35.06821619629119</v>
+        <v>-39.35842336610096</v>
       </c>
       <c r="C55">
-        <v>-586.2461540850813</v>
+        <v>-598.057044211106</v>
       </c>
       <c r="D55">
-        <v>621.3143702813725</v>
+        <v>637.415467577207</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.00152777777777778</v>
       </c>
       <c r="B56">
-        <v>-78.65057588534009</v>
+        <v>-79.00389450469754</v>
       </c>
       <c r="C56">
-        <v>-562.8810655488708</v>
+        <v>-591.0469137330888</v>
       </c>
       <c r="D56">
-        <v>641.5316414342108</v>
+        <v>670.0508082377862</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.001555555555555557</v>
       </c>
       <c r="B57">
-        <v>-164.5918420636862</v>
+        <v>-169.3242733951697</v>
       </c>
       <c r="C57">
-        <v>-516.8563649391851</v>
+        <v>-522.1737773358327</v>
       </c>
       <c r="D57">
-        <v>681.4482070028713</v>
+        <v>691.4980507310024</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.001583333333333335</v>
       </c>
       <c r="B58">
-        <v>-269.3721861716908</v>
+        <v>-280.5351633898181</v>
       </c>
       <c r="C58">
-        <v>-470.0616314146605</v>
+        <v>-476.5642481783113</v>
       </c>
       <c r="D58">
-        <v>739.4338175863513</v>
+        <v>757.0994115681294</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.001611111111111113</v>
       </c>
       <c r="B59">
-        <v>-350.6515618844243</v>
+        <v>-365.5895623779288</v>
       </c>
       <c r="C59">
-        <v>-435.5961932123611</v>
+        <v>-450.5445478037924</v>
       </c>
       <c r="D59">
-        <v>786.2477550967853</v>
+        <v>816.1341101817211</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.001638888888888891</v>
       </c>
       <c r="B60">
-        <v>-389.0997976414762</v>
+        <v>-391.1457783424826</v>
       </c>
       <c r="C60">
-        <v>-418.6361847732507</v>
+        <v>-429.1091759535645</v>
       </c>
       <c r="D60">
-        <v>807.7359824147269</v>
+        <v>820.2549542960471</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.001666666666666669</v>
       </c>
       <c r="B61">
-        <v>-414.3957905699929</v>
+        <v>-419.5395157419161</v>
       </c>
       <c r="C61">
-        <v>-413.7027862022948</v>
+        <v>-421.1550958408301</v>
       </c>
       <c r="D61">
-        <v>828.0985767722877</v>
+        <v>840.6946115827462</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.001694444444444447</v>
       </c>
       <c r="B62">
-        <v>-418.9486185945318</v>
+        <v>-429.1263160215486</v>
       </c>
       <c r="C62">
-        <v>-390.2324972817819</v>
+        <v>-394.1207262350326</v>
       </c>
       <c r="D62">
-        <v>809.1811158763137</v>
+        <v>823.2470422565812</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.001722222222222224</v>
       </c>
       <c r="B63">
-        <v>-434.475088578322</v>
+        <v>-450.9167228565703</v>
       </c>
       <c r="C63">
-        <v>-351.5915795659437</v>
+        <v>-362.7678961176649</v>
       </c>
       <c r="D63">
-        <v>786.0666681442658</v>
+        <v>813.6846189742353</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.001750000000000002</v>
       </c>
       <c r="B64">
-        <v>-469.4559127049241</v>
+        <v>-484.8174134171399</v>
       </c>
       <c r="C64">
-        <v>-271.72913386858</v>
+        <v>-287.4533533360277</v>
       </c>
       <c r="D64">
-        <v>741.185046573504</v>
+        <v>772.2707667531677</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.00177777777777778</v>
       </c>
       <c r="B65">
-        <v>-516.7337091949755</v>
+        <v>-521.8475133106643</v>
       </c>
       <c r="C65">
-        <v>-165.1631934051936</v>
+        <v>-163.5284742699039</v>
       </c>
       <c r="D65">
-        <v>681.8969026001691</v>
+        <v>685.3759875805682</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.001805555555555558</v>
       </c>
       <c r="B66">
-        <v>-562.3084366311316</v>
+        <v>-585.8426456911383</v>
       </c>
       <c r="C66">
-        <v>-79.25013579213712</v>
+        <v>-78.14498548993686</v>
       </c>
       <c r="D66">
-        <v>641.5585724232687</v>
+        <v>663.9876311810751</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.001833333333333336</v>
       </c>
       <c r="B67">
-        <v>-585.4564140393761</v>
+        <v>-602.7191861862165</v>
       </c>
       <c r="C67">
-        <v>-35.86868192348425</v>
+        <v>-39.45137439772094</v>
       </c>
       <c r="D67">
-        <v>621.3250959628604</v>
+        <v>642.1705605839373</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.001861111111111114</v>
       </c>
       <c r="B68">
-        <v>-613.299614218132</v>
+        <v>-618.9584501721498</v>
       </c>
       <c r="C68">
-        <v>-9.936810189665295</v>
+        <v>-13.15879007909584</v>
       </c>
       <c r="D68">
-        <v>623.2364244077972</v>
+        <v>632.1172402512457</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.001888888888888891</v>
       </c>
       <c r="B69">
-        <v>-623.9900210306754</v>
+        <v>-634.6878991272417</v>
       </c>
       <c r="C69">
-        <v>9.392700208167611</v>
+        <v>12.77534408170354</v>
       </c>
       <c r="D69">
-        <v>614.5973208225078</v>
+        <v>621.9125550455382</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.001916666666666669</v>
       </c>
       <c r="B70">
-        <v>-622.1449517217707</v>
+        <v>-638.9164016244877</v>
       </c>
       <c r="C70">
-        <v>35.56271788118724</v>
+        <v>39.19840928820474</v>
       </c>
       <c r="D70">
-        <v>586.5822338405834</v>
+        <v>599.7179923362829</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.001944444444444447</v>
       </c>
       <c r="B71">
-        <v>-642.8216139456624</v>
+        <v>-668.3207919889019</v>
       </c>
       <c r="C71">
-        <v>78.78718940068728</v>
+        <v>77.13300663907907</v>
       </c>
       <c r="D71">
-        <v>564.0344245449752</v>
+        <v>591.1877853498229</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.001972222222222225</v>
       </c>
       <c r="B72">
-        <v>-682.955676625654</v>
+        <v>-688.5717249329252</v>
       </c>
       <c r="C72">
-        <v>164.5400046521324</v>
+        <v>166.653203767832</v>
       </c>
       <c r="D72">
-        <v>518.4156719735215</v>
+        <v>521.9185211650932</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.002000000000000002</v>
       </c>
       <c r="B73">
-        <v>-742.0317416202481</v>
+        <v>-758.270192731031</v>
       </c>
       <c r="C73">
-        <v>270.2287170142591</v>
+        <v>281.0273019193077</v>
       </c>
       <c r="D73">
-        <v>471.803024605989</v>
+        <v>477.2428908117233</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00202777777777778</v>
       </c>
       <c r="B74">
-        <v>-787.6825016474361</v>
+        <v>-819.4312451988959</v>
       </c>
       <c r="C74">
-        <v>351.5420989235268</v>
+        <v>367.0870262307879</v>
       </c>
       <c r="D74">
-        <v>436.1404027239092</v>
+        <v>452.344218968108</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.002055555555555557</v>
       </c>
       <c r="B75">
-        <v>-807.739779733241</v>
+        <v>-823.0663906912539</v>
       </c>
       <c r="C75">
-        <v>389.5691990549903</v>
+        <v>392.3029566238516</v>
       </c>
       <c r="D75">
-        <v>418.1705806782506</v>
+        <v>430.7634340674022</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.002083333333333335</v>
       </c>
       <c r="B76">
-        <v>-827.4467804531869</v>
+        <v>-838.926359151204</v>
       </c>
       <c r="C76">
-        <v>414.2528869877244</v>
+        <v>419.3967534203617</v>
       </c>
       <c r="D76">
-        <v>413.1938934654626</v>
+        <v>419.5296057308423</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.002111111111111113</v>
       </c>
       <c r="B77">
-        <v>-808.5579098179244</v>
+        <v>-818.1430061351136</v>
       </c>
       <c r="C77">
-        <v>418.957377166487</v>
+        <v>427.9436721279125</v>
       </c>
       <c r="D77">
-        <v>389.6005326514373</v>
+        <v>390.1993340072011</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.00213888888888889</v>
       </c>
       <c r="B78">
-        <v>-785.6279002141348</v>
+        <v>-811.3761333335754</v>
       </c>
       <c r="C78">
-        <v>434.7160844060517</v>
+        <v>450.0624167267321</v>
       </c>
       <c r="D78">
-        <v>350.9118158080831</v>
+        <v>361.3137166068433</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.002166666666666668</v>
       </c>
       <c r="B79">
-        <v>-740.572424394441</v>
+        <v>-772.8876138566567</v>
       </c>
       <c r="C79">
-        <v>469.2204759792517</v>
+        <v>484.1113040301644</v>
       </c>
       <c r="D79">
-        <v>271.3519484151893</v>
+        <v>288.7763098264923</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.002194444444444445</v>
       </c>
       <c r="B80">
-        <v>-681.4604153421126</v>
+        <v>-683.8047725933329</v>
       </c>
       <c r="C80">
-        <v>516.2445051555648</v>
+        <v>519.9434682269566</v>
       </c>
       <c r="D80">
-        <v>165.2159101865479</v>
+        <v>163.8613043663764</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.002222222222222223</v>
       </c>
       <c r="B81">
-        <v>-641.3922414577611</v>
+        <v>-660.9730793557696</v>
       </c>
       <c r="C81">
-        <v>561.8104753334336</v>
+        <v>584.0217759224413</v>
       </c>
       <c r="D81">
-        <v>79.58176612432754</v>
+        <v>76.95130343332832</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.002250000000000001</v>
       </c>
       <c r="B82">
-        <v>-621.5669809014141</v>
+        <v>-641.3436883060783</v>
       </c>
       <c r="C82">
-        <v>585.8410614567695</v>
+        <v>603.2667238696192</v>
       </c>
       <c r="D82">
-        <v>35.72591944464466</v>
+        <v>38.07696443645901</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.002277777777777778</v>
       </c>
       <c r="B83">
-        <v>-623.4086202442568</v>
+        <v>-632.1053967787578</v>
       </c>
       <c r="C83">
-        <v>613.712138133572</v>
+        <v>618.4657066999334</v>
       </c>
       <c r="D83">
-        <v>9.696482110684769</v>
+        <v>13.6396900788244</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.002305555555555556</v>
       </c>
       <c r="B84">
-        <v>-615.3997379149154</v>
+        <v>-622.0208821936642</v>
       </c>
       <c r="C84">
-        <v>625.049283097287</v>
+        <v>633.5774530386897</v>
       </c>
       <c r="D84">
-        <v>-9.649545182371696</v>
+        <v>-11.55657084502548</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B85">
-        <v>-585.8254692119314</v>
+        <v>-599.2837274881233</v>
       </c>
       <c r="C85">
-        <v>621.2719321542791</v>
+        <v>638.1616717839828</v>
       </c>
       <c r="D85">
-        <v>-35.44646294234767</v>
+        <v>-38.87794429585952</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.002361111111111111</v>
       </c>
       <c r="B86">
-        <v>-563.1436395650362</v>
+        <v>-593.0407734176283</v>
       </c>
       <c r="C86">
-        <v>641.8123256302731</v>
+        <v>671.1804798828462</v>
       </c>
       <c r="D86">
-        <v>-78.66868606523681</v>
+        <v>-78.13970646521784</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.002388888888888889</v>
       </c>
       <c r="B87">
-        <v>-517.6100367242168</v>
+        <v>-522.2516092054682</v>
       </c>
       <c r="C87">
-        <v>682.0096316914683</v>
+        <v>691.0844215245717</v>
       </c>
       <c r="D87">
-        <v>-164.3995949672515</v>
+        <v>-168.8328123191035</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.002416666666666666</v>
       </c>
       <c r="B88">
-        <v>-470.6695418357668</v>
+        <v>-477.3860244100759</v>
       </c>
       <c r="C88">
-        <v>740.5765792769128</v>
+        <v>759.4311554642029</v>
       </c>
       <c r="D88">
-        <v>-269.9070374411459</v>
+        <v>-282.0451310541269</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.002444444444444444</v>
       </c>
       <c r="B89">
-        <v>-435.9990545368618</v>
+        <v>-452.1038638671625</v>
       </c>
       <c r="C89">
-        <v>787.6053066329928</v>
+        <v>818.9822689251359</v>
       </c>
       <c r="D89">
-        <v>-351.606252096131</v>
+        <v>-366.8784050579735</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.002472222222222222</v>
       </c>
       <c r="B90">
-        <v>-419.0902364569263</v>
+        <v>-428.7647999220053</v>
       </c>
       <c r="C90">
-        <v>809.365300522416</v>
+        <v>818.7621334036221</v>
       </c>
       <c r="D90">
-        <v>-390.2750640654897</v>
+        <v>-389.9973334816167</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/LineVoltage6000.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage6000.xlsx
@@ -408,13 +408,13 @@
         <v>2.777777777777778e-05</v>
       </c>
       <c r="B2">
-        <v>-393.833895961649</v>
+        <v>-399.5644394346268</v>
       </c>
       <c r="C2">
-        <v>825.4832903870233</v>
+        <v>830.0757049647073</v>
       </c>
       <c r="D2">
-        <v>-431.6493944253742</v>
+        <v>-430.5112655300805</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>5.555555555555556e-05</v>
       </c>
       <c r="B3">
-        <v>-361.2861714301371</v>
+        <v>-360.4942636196121</v>
       </c>
       <c r="C3">
-        <v>812.1383699234104</v>
+        <v>807.6737614351252</v>
       </c>
       <c r="D3">
-        <v>-450.8521984932734</v>
+        <v>-447.1794978155132</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>8.333333333333334e-05</v>
       </c>
       <c r="B4">
-        <v>-287.4202761626873</v>
+        <v>-278.0607057326926</v>
       </c>
       <c r="C4">
-        <v>770.2531457908726</v>
+        <v>759.353201085516</v>
       </c>
       <c r="D4">
-        <v>-482.8328696281853</v>
+        <v>-481.2924953528236</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001111111111111111</v>
       </c>
       <c r="B5">
-        <v>-161.9753847572689</v>
+        <v>-169.0764632111824</v>
       </c>
       <c r="C5">
-        <v>682.028935359202</v>
+        <v>696.9367607200579</v>
       </c>
       <c r="D5">
-        <v>-520.0535506019332</v>
+        <v>-527.8602975088755</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0001388888888888889</v>
       </c>
       <c r="B6">
-        <v>-76.76566658209899</v>
+        <v>-81.52480142289141</v>
       </c>
       <c r="C6">
-        <v>660.4445457564613</v>
+        <v>656.9403857352451</v>
       </c>
       <c r="D6">
-        <v>-583.6788791743622</v>
+        <v>-575.4155843123536</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B7">
-        <v>-38.7218490901825</v>
+        <v>-36.45392843389467</v>
       </c>
       <c r="C7">
-        <v>641.3596062533944</v>
+        <v>635.0054667920157</v>
       </c>
       <c r="D7">
-        <v>-602.6377571632119</v>
+        <v>-598.551538358121</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0001944444444444444</v>
       </c>
       <c r="B8">
-        <v>-14.48299442675716</v>
+        <v>-10.09545883013939</v>
       </c>
       <c r="C8">
-        <v>632.200544753674</v>
+        <v>640.4229231231941</v>
       </c>
       <c r="D8">
-        <v>-617.7175503269168</v>
+        <v>-630.3274642930547</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0002222222222222222</v>
       </c>
       <c r="B9">
-        <v>11.11760127621847</v>
+        <v>9.527090396147003</v>
       </c>
       <c r="C9">
-        <v>620.6020324951837</v>
+        <v>631.050837914446</v>
       </c>
       <c r="D9">
-        <v>-631.7196337714022</v>
+        <v>-640.5779283105931</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.00025</v>
       </c>
       <c r="B10">
-        <v>39.30980951620285</v>
+        <v>36.29557030282641</v>
       </c>
       <c r="C10">
-        <v>598.0830602313915</v>
+        <v>600.8502522495156</v>
       </c>
       <c r="D10">
-        <v>-637.3928697475944</v>
+        <v>-637.145822552342</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0002777777777777778</v>
       </c>
       <c r="B11">
-        <v>78.91787804847061</v>
+        <v>80.71431395215686</v>
       </c>
       <c r="C11">
-        <v>591.0863373429561</v>
+        <v>577.9862366347254</v>
       </c>
       <c r="D11">
-        <v>-670.0042153914267</v>
+        <v>-658.7005505868822</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0003055555555555555</v>
       </c>
       <c r="B12">
-        <v>169.1780473003762</v>
+        <v>168.9157280190329</v>
       </c>
       <c r="C12">
-        <v>522.2779645169355</v>
+        <v>529.6419286959402</v>
       </c>
       <c r="D12">
-        <v>-691.4560118173117</v>
+        <v>-698.5576567149731</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B13">
-        <v>280.3697941060024</v>
+        <v>275.9413316354814</v>
       </c>
       <c r="C13">
-        <v>476.606591883863</v>
+        <v>482.0467476794175</v>
       </c>
       <c r="D13">
-        <v>-756.9763859898653</v>
+        <v>-757.9880793148989</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0003611111111111111</v>
       </c>
       <c r="B14">
-        <v>365.5252229661675</v>
+        <v>359.4944417706332</v>
       </c>
       <c r="C14">
-        <v>450.5801513301695</v>
+        <v>446.6377958520957</v>
       </c>
       <c r="D14">
-        <v>-816.105374296337</v>
+        <v>-806.1322376227289</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0003888888888888889</v>
       </c>
       <c r="B15">
-        <v>391.1053834867369</v>
+        <v>398.8599756141814</v>
       </c>
       <c r="C15">
-        <v>429.128746867469</v>
+        <v>429.0106426785387</v>
       </c>
       <c r="D15">
-        <v>-820.2341303542058</v>
+        <v>-827.8706182927201</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0004166666666666666</v>
       </c>
       <c r="B16">
-        <v>419.5132675777318</v>
+        <v>425.6806751702455</v>
       </c>
       <c r="C16">
-        <v>421.1778232267463</v>
+        <v>425.1930066105136</v>
       </c>
       <c r="D16">
-        <v>-840.6910908044781</v>
+        <v>-850.8736817807592</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0004444444444444444</v>
       </c>
       <c r="B17">
-        <v>429.1113191137268</v>
+        <v>429.2188871812963</v>
       </c>
       <c r="C17">
-        <v>394.1636873089346</v>
+        <v>399.4023622386749</v>
       </c>
       <c r="D17">
-        <v>-823.2750064226614</v>
+        <v>-828.6212494199713</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0004722222222222222</v>
       </c>
       <c r="B18">
-        <v>450.8628443661845</v>
+        <v>445.9351251305751</v>
       </c>
       <c r="C18">
-        <v>362.8135975187255</v>
+        <v>360.7424874019441</v>
       </c>
       <c r="D18">
-        <v>-813.67644188491</v>
+        <v>-806.6776125325192</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0005</v>
       </c>
       <c r="B19">
-        <v>484.7778443065751</v>
+        <v>482.0537265300251</v>
       </c>
       <c r="C19">
-        <v>287.6414536932695</v>
+        <v>279.159355695153</v>
       </c>
       <c r="D19">
-        <v>-772.4192979998446</v>
+        <v>-761.2130822251781</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0005277777777777778</v>
       </c>
       <c r="B20">
-        <v>521.7650868836852</v>
+        <v>529.5898135476821</v>
       </c>
       <c r="C20">
-        <v>163.6769044045413</v>
+        <v>169.2271131968454</v>
       </c>
       <c r="D20">
-        <v>-685.4419912882265</v>
+        <v>-698.8169267445274</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0005555555555555557</v>
       </c>
       <c r="B21">
-        <v>585.7671260880775</v>
+        <v>576.6890102852964</v>
       </c>
       <c r="C21">
-        <v>78.23533145805445</v>
+        <v>81.32416150930965</v>
       </c>
       <c r="D21">
-        <v>-664.0024575461318</v>
+        <v>-658.013171794606</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0005833333333333335</v>
       </c>
       <c r="B22">
-        <v>602.7221104178795</v>
+        <v>599.2550042231317</v>
       </c>
       <c r="C22">
-        <v>39.48613263894703</v>
+        <v>36.86121005579858</v>
       </c>
       <c r="D22">
-        <v>-642.2082430568266</v>
+        <v>-636.1162142789302</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0006111111111111113</v>
       </c>
       <c r="B23">
-        <v>618.9170780268174</v>
+        <v>630.514695011958</v>
       </c>
       <c r="C23">
-        <v>13.1941322400211</v>
+        <v>10.19796175324299</v>
       </c>
       <c r="D23">
-        <v>-632.1112102668385</v>
+        <v>-640.712656765201</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0006388888888888891</v>
       </c>
       <c r="B24">
-        <v>634.6885196930205</v>
+        <v>640.1585276898174</v>
       </c>
       <c r="C24">
-        <v>-12.73692832581634</v>
+        <v>-9.882030951206843</v>
       </c>
       <c r="D24">
-        <v>-621.9515913672041</v>
+        <v>-630.2764967386106</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.000666666666666667</v>
       </c>
       <c r="B25">
-        <v>638.8970043836187</v>
+        <v>637.9382406874121</v>
       </c>
       <c r="C25">
-        <v>-39.15329814120435</v>
+        <v>-36.85699118638809</v>
       </c>
       <c r="D25">
-        <v>-599.7437062424144</v>
+        <v>-601.081249501024</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.0006944444444444448</v>
       </c>
       <c r="B26">
-        <v>668.2747895323607</v>
+        <v>659.8694429194335</v>
       </c>
       <c r="C26">
-        <v>-77.04889458650862</v>
+        <v>-80.81333090541179</v>
       </c>
       <c r="D26">
-        <v>-591.2258949458521</v>
+        <v>-579.0561120140217</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.0007222222222222226</v>
       </c>
       <c r="B27">
-        <v>688.5335245894466</v>
+        <v>700.1468880844835</v>
       </c>
       <c r="C27">
-        <v>-166.5062098741299</v>
+        <v>-168.8186334303138</v>
       </c>
       <c r="D27">
-        <v>-522.0273147153168</v>
+        <v>-531.3282546541698</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.0007500000000000004</v>
       </c>
       <c r="B28">
-        <v>758.1392178363087</v>
+        <v>760.5476610843584</v>
       </c>
       <c r="C28">
-        <v>-280.8572327769147</v>
+        <v>-276.8456202612884</v>
       </c>
       <c r="D28">
-        <v>-477.2819850593941</v>
+        <v>-483.70204082307</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.0007777777777777783</v>
       </c>
       <c r="B29">
-        <v>819.4021675795282</v>
+        <v>807.471956150978</v>
       </c>
       <c r="C29">
-        <v>-367.0228980088103</v>
+        <v>-360.4209897516868</v>
       </c>
       <c r="D29">
-        <v>-452.3792695707179</v>
+        <v>-447.0509663992912</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.0008055555555555561</v>
       </c>
       <c r="B30">
-        <v>823.0511116909681</v>
+        <v>828.2953203966983</v>
       </c>
       <c r="C30">
-        <v>-392.2648384766259</v>
+        <v>-399.4295469558839</v>
       </c>
       <c r="D30">
-        <v>-430.7862732143422</v>
+        <v>-428.8657734408145</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.0008333333333333339</v>
       </c>
       <c r="B31">
-        <v>838.9248263421744</v>
+        <v>850.2887719697594</v>
       </c>
       <c r="C31">
-        <v>-419.3702600180614</v>
+        <v>-425.5158059336783</v>
       </c>
       <c r="D31">
-        <v>-419.5545663241129</v>
+        <v>-424.7729660360811</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.0008611111111111118</v>
       </c>
       <c r="B32">
-        <v>818.1732632890705</v>
+        <v>827.8304988104012</v>
       </c>
       <c r="C32">
-        <v>-427.9292239346232</v>
+        <v>-429.158694408026</v>
       </c>
       <c r="D32">
-        <v>-390.2440393544474</v>
+        <v>-398.6718044023753</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.0008888888888888896</v>
       </c>
       <c r="B33">
-        <v>811.3688790942987</v>
+        <v>805.8792965231455</v>
       </c>
       <c r="C33">
-        <v>-450.0132424902631</v>
+        <v>-446.1014592718519</v>
       </c>
       <c r="D33">
-        <v>-361.3556366040356</v>
+        <v>-359.7778372512936</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.0009166666666666674</v>
       </c>
       <c r="B34">
-        <v>773.0271626446861</v>
+        <v>760.3820144635604</v>
       </c>
       <c r="C34">
-        <v>-484.0677640644992</v>
+        <v>-481.7223292219921</v>
       </c>
       <c r="D34">
-        <v>-288.9593985801869</v>
+        <v>-278.6596852415682</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.0009444444444444452</v>
       </c>
       <c r="B35">
-        <v>683.8771672359053</v>
+        <v>698.3989854534107</v>
       </c>
       <c r="C35">
-        <v>-519.862743754386</v>
+        <v>-528.9602092244163</v>
       </c>
       <c r="D35">
-        <v>-164.0144234815194</v>
+        <v>-169.4387762289942</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.0009722222222222231</v>
       </c>
       <c r="B36">
-        <v>660.9849188406852</v>
+        <v>657.6748975618971</v>
       </c>
       <c r="C36">
-        <v>-583.9416043540546</v>
+        <v>-576.0452393144117</v>
       </c>
       <c r="D36">
-        <v>-77.04331448663058</v>
+        <v>-81.62965824748539</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001000000000000001</v>
       </c>
       <c r="B37">
-        <v>641.3838118262171</v>
+        <v>636.216411100733</v>
       </c>
       <c r="C37">
-        <v>-603.2733307952642</v>
+        <v>-599.5767275583892</v>
       </c>
       <c r="D37">
-        <v>-38.11048103095291</v>
+        <v>-36.63968354234385</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001027777777777779</v>
       </c>
       <c r="B38">
-        <v>632.0953011911065</v>
+        <v>640.6977087538844</v>
       </c>
       <c r="C38">
-        <v>-618.4229326223115</v>
+        <v>-630.7509705650396</v>
       </c>
       <c r="D38">
-        <v>-13.67236856879506</v>
+        <v>-9.946738188844904</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001055555555555557</v>
       </c>
       <c r="B39">
-        <v>622.0613803351628</v>
+        <v>631.1883424286631</v>
       </c>
       <c r="C39">
-        <v>-633.579821460838</v>
+        <v>-641.0344452514242</v>
       </c>
       <c r="D39">
-        <v>11.51844112567522</v>
+        <v>9.846102822761168</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001083333333333334</v>
       </c>
       <c r="B40">
-        <v>599.3076195400366</v>
+        <v>600.1492327319693</v>
       </c>
       <c r="C40">
-        <v>-638.1381880097249</v>
+        <v>-636.6785986824433</v>
       </c>
       <c r="D40">
-        <v>38.83056846968827</v>
+        <v>36.52936595047396</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001111111111111112</v>
       </c>
       <c r="B41">
-        <v>593.0797396397361</v>
+        <v>578.1014395002559</v>
       </c>
       <c r="C41">
-        <v>-671.1341681793494</v>
+        <v>-658.8170075432531</v>
       </c>
       <c r="D41">
-        <v>78.05442853961347</v>
+        <v>80.71556804299718</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.00113888888888889</v>
       </c>
       <c r="B42">
-        <v>522.3573626152299</v>
+        <v>530.4446389155032</v>
       </c>
       <c r="C42">
-        <v>-691.0404358798535</v>
+        <v>-699.3789232285974</v>
       </c>
       <c r="D42">
-        <v>168.6830732646236</v>
+        <v>168.9342843130942</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001166666666666668</v>
       </c>
       <c r="B43">
-        <v>477.4272404497196</v>
+        <v>482.6372384556103</v>
       </c>
       <c r="C43">
-        <v>-759.3051840699453</v>
+        <v>-759.1604522734228</v>
       </c>
       <c r="D43">
-        <v>281.8779436202257</v>
+        <v>276.5232138178126</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001194444444444446</v>
       </c>
       <c r="B44">
-        <v>452.1420047887914</v>
+        <v>446.8155346394775</v>
       </c>
       <c r="C44">
-        <v>-818.9603436432355</v>
+        <v>-807.1053419864611</v>
       </c>
       <c r="D44">
-        <v>366.8183388544441</v>
+        <v>360.2898073469836</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001222222222222224</v>
       </c>
       <c r="B45">
-        <v>428.7833130717268</v>
+        <v>429.4849867775017</v>
       </c>
       <c r="C45">
-        <v>-818.7388463578083</v>
+        <v>-829.5351941025554</v>
       </c>
       <c r="D45">
-        <v>389.9555332860814</v>
+        <v>400.0502073250537</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001250000000000001</v>
       </c>
       <c r="B46">
-        <v>422.4039069466922</v>
+        <v>426.0145369344721</v>
       </c>
       <c r="C46">
-        <v>-844.106021038891</v>
+        <v>-852.8999487739436</v>
       </c>
       <c r="D46">
-        <v>421.7021140921987</v>
+        <v>426.8854118394714</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001277777777777779</v>
       </c>
       <c r="B47">
-        <v>393.7907004175387</v>
+        <v>399.5128580289143</v>
       </c>
       <c r="C47">
-        <v>-825.4569643567346</v>
+        <v>-830.0328997646253</v>
       </c>
       <c r="D47">
-        <v>431.6662639391959</v>
+        <v>430.5200417357111</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001305555555555557</v>
       </c>
       <c r="B48">
-        <v>361.2383851130742</v>
+        <v>360.4230956497015</v>
       </c>
       <c r="C48">
-        <v>-812.1377150215158</v>
+        <v>-807.6400575626452</v>
       </c>
       <c r="D48">
-        <v>450.8993299084415</v>
+        <v>447.2169619129437</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001333333333333335</v>
       </c>
       <c r="B49">
-        <v>287.2339157835788</v>
+        <v>277.9002808447428</v>
       </c>
       <c r="C49">
-        <v>-770.1059641429549</v>
+        <v>-759.2554483065794</v>
       </c>
       <c r="D49">
-        <v>482.8720483593761</v>
+        <v>481.3551674618366</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.001361111111111113</v>
       </c>
       <c r="B50">
-        <v>161.8265576152253</v>
+        <v>168.9323472325607</v>
       </c>
       <c r="C50">
-        <v>-681.9629091975577</v>
+        <v>-696.8627350214763</v>
       </c>
       <c r="D50">
-        <v>520.1363515823324</v>
+        <v>527.9303877889155</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.00138888888888889</v>
       </c>
       <c r="B51">
-        <v>76.67376717202467</v>
+        <v>81.42705806659265</v>
       </c>
       <c r="C51">
-        <v>-660.4262461266214</v>
+        <v>-656.8952015301497</v>
       </c>
       <c r="D51">
-        <v>583.7524789545967</v>
+        <v>575.4681434635571</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.001416666666666668</v>
       </c>
       <c r="B52">
-        <v>38.69067330450781</v>
+        <v>36.40995251599665</v>
       </c>
       <c r="C52">
-        <v>-641.3243382163205</v>
+        <v>-634.996827637949</v>
       </c>
       <c r="D52">
-        <v>602.6336649118126</v>
+        <v>598.5868751219523</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.001444444444444446</v>
       </c>
       <c r="B53">
-        <v>14.44885984789619</v>
+        <v>10.06518483772811</v>
       </c>
       <c r="C53">
-        <v>-632.2100936472739</v>
+        <v>-640.4357604336919</v>
       </c>
       <c r="D53">
-        <v>617.7612337993776</v>
+        <v>630.3705755959638</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.001472222222222224</v>
       </c>
       <c r="B54">
-        <v>-11.15665947573564</v>
+        <v>-9.558625889923292</v>
       </c>
       <c r="C54">
-        <v>-620.5623118659166</v>
+        <v>-631.0072778610815</v>
       </c>
       <c r="D54">
-        <v>631.7189713416523</v>
+        <v>640.5659037510047</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.001500000000000002</v>
       </c>
       <c r="B55">
-        <v>-39.35842336610096</v>
+        <v>-36.34082783989439</v>
       </c>
       <c r="C55">
-        <v>-598.057044211106</v>
+        <v>-600.8200205069267</v>
       </c>
       <c r="D55">
-        <v>637.415467577207</v>
+        <v>637.160848346821</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.00152777777777778</v>
       </c>
       <c r="B56">
-        <v>-79.00389450469754</v>
+        <v>-80.8097487270812</v>
       </c>
       <c r="C56">
-        <v>-591.0469137330888</v>
+        <v>-577.9292341223213</v>
       </c>
       <c r="D56">
-        <v>670.0508082377862</v>
+        <v>658.7389828494024</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.001555555555555557</v>
       </c>
       <c r="B57">
-        <v>-169.3242733951697</v>
+        <v>-169.0613576174865</v>
       </c>
       <c r="C57">
-        <v>-522.1737773358327</v>
+        <v>-529.5724644047806</v>
       </c>
       <c r="D57">
-        <v>691.4980507310024</v>
+        <v>698.6338220222672</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.001583333333333335</v>
       </c>
       <c r="B58">
-        <v>-280.5351633898181</v>
+        <v>-276.0985272535937</v>
       </c>
       <c r="C58">
-        <v>-476.5642481783113</v>
+        <v>-481.9830832478792</v>
       </c>
       <c r="D58">
-        <v>757.0994115681294</v>
+        <v>758.0816105014729</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.001611111111111113</v>
       </c>
       <c r="B59">
-        <v>-365.5895623779288</v>
+        <v>-359.5685611654012</v>
       </c>
       <c r="C59">
-        <v>-450.5445478037924</v>
+        <v>-446.598454548988</v>
       </c>
       <c r="D59">
-        <v>816.1341101817211</v>
+        <v>806.1670157143892</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.001638888888888891</v>
       </c>
       <c r="B60">
-        <v>-391.1457783424826</v>
+        <v>-398.9137839604846</v>
       </c>
       <c r="C60">
-        <v>-429.1091759535645</v>
+        <v>-429.0019684778759</v>
       </c>
       <c r="D60">
-        <v>820.2549542960471</v>
+        <v>827.9157524383606</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.001666666666666669</v>
       </c>
       <c r="B61">
-        <v>-419.5395157419161</v>
+        <v>-425.6966806915634</v>
       </c>
       <c r="C61">
-        <v>-421.1550958408301</v>
+        <v>-425.1777421565183</v>
       </c>
       <c r="D61">
-        <v>840.6946115827462</v>
+        <v>850.8744228480816</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.001694444444444447</v>
       </c>
       <c r="B62">
-        <v>-429.1263160215486</v>
+        <v>-429.2236705121973</v>
       </c>
       <c r="C62">
-        <v>-394.1207262350326</v>
+        <v>-399.3494356604791</v>
       </c>
       <c r="D62">
-        <v>823.2470422565812</v>
+        <v>828.5731061726763</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.001722222222222224</v>
       </c>
       <c r="B63">
-        <v>-450.9167228565703</v>
+        <v>-445.9762788851738</v>
       </c>
       <c r="C63">
-        <v>-362.7678961176649</v>
+        <v>-360.6723616773307</v>
       </c>
       <c r="D63">
-        <v>813.6846189742353</v>
+        <v>806.6486405625045</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.001750000000000002</v>
       </c>
       <c r="B64">
-        <v>-484.8174134171399</v>
+        <v>-482.1191662740839</v>
       </c>
       <c r="C64">
-        <v>-287.4533533360277</v>
+        <v>-278.9988685450012</v>
       </c>
       <c r="D64">
-        <v>772.2707667531677</v>
+        <v>761.1180348190851</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.00177777777777778</v>
       </c>
       <c r="B65">
-        <v>-521.8475133106643</v>
+        <v>-529.658700166782</v>
       </c>
       <c r="C65">
-        <v>-163.5284742699039</v>
+        <v>-169.0808961296181</v>
       </c>
       <c r="D65">
-        <v>685.3759875805682</v>
+        <v>698.7395962964</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.001805555555555558</v>
       </c>
       <c r="B66">
-        <v>-585.8426456911383</v>
+        <v>-576.747471680474</v>
       </c>
       <c r="C66">
-        <v>-78.14498548993686</v>
+        <v>-81.22847227879703</v>
       </c>
       <c r="D66">
-        <v>663.9876311810751</v>
+        <v>657.975943959271</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.001833333333333336</v>
       </c>
       <c r="B67">
-        <v>-602.7191861862165</v>
+        <v>-599.2800956901935</v>
       </c>
       <c r="C67">
-        <v>-39.45137439772094</v>
+        <v>-36.81623269353813</v>
       </c>
       <c r="D67">
-        <v>642.1705605839373</v>
+        <v>636.0963283837317</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.001861111111111114</v>
       </c>
       <c r="B68">
-        <v>-618.9584501721498</v>
+        <v>-630.5587235378376</v>
       </c>
       <c r="C68">
-        <v>-13.15879007909584</v>
+        <v>-10.16749210948996</v>
       </c>
       <c r="D68">
-        <v>632.1172402512457</v>
+        <v>640.7262156473275</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.001888888888888891</v>
       </c>
       <c r="B69">
-        <v>-634.6878991272417</v>
+        <v>-640.1472736243214</v>
       </c>
       <c r="C69">
-        <v>12.77534408170354</v>
+        <v>9.914548102701588</v>
       </c>
       <c r="D69">
-        <v>621.9125550455382</v>
+        <v>630.2327255216198</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.001916666666666669</v>
       </c>
       <c r="B70">
-        <v>-638.9164016244877</v>
+        <v>-637.95667304688</v>
       </c>
       <c r="C70">
-        <v>39.19840928820474</v>
+        <v>36.90189408328465</v>
       </c>
       <c r="D70">
-        <v>599.7179923362829</v>
+        <v>601.0547789635954</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.001944444444444447</v>
       </c>
       <c r="B71">
-        <v>-668.3207919889019</v>
+        <v>-659.9110147697526</v>
       </c>
       <c r="C71">
-        <v>77.13300663907907</v>
+        <v>80.9084051426523</v>
       </c>
       <c r="D71">
-        <v>591.1877853498229</v>
+        <v>579.0026096271004</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.001972222222222225</v>
       </c>
       <c r="B72">
-        <v>-688.5717249329252</v>
+        <v>-700.221686010774</v>
       </c>
       <c r="C72">
-        <v>166.653203767832</v>
+        <v>168.9643162982038</v>
       </c>
       <c r="D72">
-        <v>521.9185211650932</v>
+        <v>531.2573697125702</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.002000000000000002</v>
       </c>
       <c r="B73">
-        <v>-758.270192731031</v>
+        <v>-760.6421155707312</v>
       </c>
       <c r="C73">
-        <v>281.0273019193077</v>
+        <v>277.0048076339504</v>
       </c>
       <c r="D73">
-        <v>477.2428908117233</v>
+        <v>483.6373079367808</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00202777777777778</v>
       </c>
       <c r="B74">
-        <v>-819.4312451988959</v>
+        <v>-807.5051196473696</v>
       </c>
       <c r="C74">
-        <v>367.0870262307879</v>
+        <v>360.4944271942867</v>
       </c>
       <c r="D74">
-        <v>452.344218968108</v>
+        <v>447.0106924530829</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.002055555555555557</v>
       </c>
       <c r="B75">
-        <v>-823.0663906912539</v>
+        <v>-828.3349350560541</v>
       </c>
       <c r="C75">
-        <v>392.3029566238516</v>
+        <v>399.480387735511</v>
       </c>
       <c r="D75">
-        <v>430.7634340674022</v>
+        <v>428.8545473205431</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.002083333333333335</v>
       </c>
       <c r="B76">
-        <v>-838.926359151204</v>
+        <v>-850.2916615787069</v>
       </c>
       <c r="C76">
-        <v>419.3967534203617</v>
+        <v>425.5333867007546</v>
       </c>
       <c r="D76">
-        <v>419.5296057308423</v>
+        <v>424.7582748779523</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.002111111111111113</v>
       </c>
       <c r="B77">
-        <v>-818.1430061351136</v>
+        <v>-827.7873317654394</v>
       </c>
       <c r="C77">
-        <v>427.9436721279125</v>
+        <v>429.1674573849068</v>
       </c>
       <c r="D77">
-        <v>390.1993340072011</v>
+        <v>398.6198743805326</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.00213888888888889</v>
       </c>
       <c r="B78">
-        <v>-811.3761333335754</v>
+        <v>-805.848176767561</v>
       </c>
       <c r="C78">
-        <v>450.0624167267321</v>
+        <v>446.1406776192608</v>
       </c>
       <c r="D78">
-        <v>361.3137166068433</v>
+        <v>359.7074991483003</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.002166666666666668</v>
       </c>
       <c r="B79">
-        <v>-772.8876138566567</v>
+        <v>-760.2846545525119</v>
       </c>
       <c r="C79">
-        <v>484.1113040301644</v>
+        <v>481.7851151650999</v>
       </c>
       <c r="D79">
-        <v>288.7763098264923</v>
+        <v>278.499539387412</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.002194444444444445</v>
       </c>
       <c r="B80">
-        <v>-683.8047725933329</v>
+        <v>-698.3186761900462</v>
       </c>
       <c r="C80">
-        <v>519.9434682269566</v>
+        <v>529.0256932750658</v>
       </c>
       <c r="D80">
-        <v>163.8613043663764</v>
+        <v>169.2929829149803</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.002222222222222223</v>
       </c>
       <c r="B81">
-        <v>-660.9730793557696</v>
+        <v>-657.6365579198007</v>
       </c>
       <c r="C81">
-        <v>584.0217759224413</v>
+        <v>576.1039112446814</v>
       </c>
       <c r="D81">
-        <v>76.95130343332832</v>
+        <v>81.53264667511928</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.002250000000000001</v>
       </c>
       <c r="B82">
-        <v>-641.3436883060783</v>
+        <v>-636.2021688676346</v>
       </c>
       <c r="C82">
-        <v>603.2667238696192</v>
+        <v>599.6076521697162</v>
       </c>
       <c r="D82">
-        <v>38.07696443645901</v>
+        <v>36.59451669791841</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.002277777777777778</v>
       </c>
       <c r="B83">
-        <v>-632.1053967787578</v>
+        <v>-640.7130334251656</v>
       </c>
       <c r="C83">
-        <v>618.4657066999334</v>
+        <v>630.7967696065048</v>
       </c>
       <c r="D83">
-        <v>13.6396900788244</v>
+        <v>9.916263818660894</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.002305555555555556</v>
       </c>
       <c r="B84">
-        <v>-622.0208821936642</v>
+        <v>-631.1403426330057</v>
       </c>
       <c r="C84">
-        <v>633.5774530386897</v>
+        <v>641.0181246554654</v>
       </c>
       <c r="D84">
-        <v>-11.55657084502548</v>
+        <v>-9.877782022459655</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B85">
-        <v>-599.2837274881233</v>
+        <v>-600.1180631375291</v>
       </c>
       <c r="C85">
-        <v>638.1616717839828</v>
+        <v>636.6916178395402</v>
       </c>
       <c r="D85">
-        <v>-38.87794429585952</v>
+        <v>-36.57355470201102</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.002361111111111111</v>
       </c>
       <c r="B86">
-        <v>-593.0407734176283</v>
+        <v>-578.0501620984442</v>
       </c>
       <c r="C86">
-        <v>671.1804798828462</v>
+        <v>658.8610338714766</v>
       </c>
       <c r="D86">
-        <v>-78.13970646521784</v>
+        <v>-80.81087177303237</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.002388888888888889</v>
       </c>
       <c r="B87">
-        <v>-522.2516092054682</v>
+        <v>-530.3743538252645</v>
       </c>
       <c r="C87">
-        <v>691.0844215245717</v>
+        <v>699.4559934216032</v>
       </c>
       <c r="D87">
-        <v>-168.8328123191035</v>
+        <v>-169.0816395963388</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.002416666666666666</v>
       </c>
       <c r="B88">
-        <v>-477.3860244100759</v>
+        <v>-482.5741664565</v>
       </c>
       <c r="C88">
-        <v>759.4311554642029</v>
+        <v>759.2552778571387</v>
       </c>
       <c r="D88">
-        <v>-282.0451310541269</v>
+        <v>-276.6811114006387</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.002444444444444444</v>
       </c>
       <c r="B89">
-        <v>-452.1038638671625</v>
+        <v>-446.773777099839</v>
       </c>
       <c r="C89">
-        <v>818.9822689251359</v>
+        <v>807.135746115483</v>
       </c>
       <c r="D89">
-        <v>-366.8784050579735</v>
+        <v>-360.3619690156441</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.002472222222222222</v>
       </c>
       <c r="B90">
-        <v>-428.7647999220053</v>
+        <v>-429.4783548941783</v>
       </c>
       <c r="C90">
-        <v>818.7621334036221</v>
+        <v>829.5829775411642</v>
       </c>
       <c r="D90">
-        <v>-389.9973334816167</v>
+        <v>-400.1046226469859</v>
       </c>
     </row>
   </sheetData>
